--- a/Weekly Group Update Sheet.xlsx
+++ b/Weekly Group Update Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flooofy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-16.04\home\floofy\AdvProg\Assignment_2\github\AdvProg_A2_GreenDino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A3B639-2D6C-4977-B7A7-BD62386C19BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A58635-E914-4BFC-90CF-4B5915C3CF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0A4B5FC3-0136-B14A-9B40-3E7830ECEC8E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>Week 7</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Completed main menu with "credits"</t>
+  </si>
+  <si>
+    <t>Decided on where to use linkedlist/vector/array, done simple user main menu, contributed to saved-game format</t>
+  </si>
+  <si>
+    <t>Completed initial design of ADTs, linkedlist implementation, contributed to saved-game format</t>
   </si>
 </sst>
 </file>
@@ -436,16 +442,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -814,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEB16DE-CA26-1841-81B8-0823EC851E9B}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -937,13 +1139,13 @@
       <c r="F13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="28" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1009,10 +1211,10 @@
       <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="11"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -1044,7 +1246,7 @@
         <v>Amy Nguyen</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
       <c r="D22" s="26" t="s">
         <v>30</v>
@@ -1053,9 +1255,15 @@
       <c r="F22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12"/>
+      <c r="G22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
@@ -1066,9 +1274,15 @@
       <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12"/>
+      <c r="G23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
@@ -1079,9 +1293,15 @@
       <c r="F24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12"/>
+      <c r="G24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
@@ -1118,10 +1338,10 @@
       <c r="C28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="11"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -1224,10 +1444,10 @@
       <c r="C38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
@@ -1330,10 +1550,10 @@
       <c r="C48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="29"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="22"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
@@ -1436,10 +1656,10 @@
       <c r="C58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="29"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="22"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
@@ -1454,20 +1674,104 @@
     <mergeCell ref="D58:E58"/>
   </mergeCells>
   <conditionalFormatting sqref="A19:XFD20 A18:D18 A29:XFD30 A28:D28 A39:XFD40 A38:D38 A49:XFD50 A48:D48 A59:XFD1048576 A58:D58 F18:XFD18 A21:E27 J21:XFD28 J31:XFD38 A41:E47 J41:XFD48 J51:XFD58 A31:E37 A51:E52 A57:E57 A53:C56 E53:E56 D54:D56 A1:XFD17">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="29" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:I28">
+  <conditionalFormatting sqref="F21:I22 F25:I28 F23:F24">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>

--- a/Weekly Group Update Sheet.xlsx
+++ b/Weekly Group Update Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-16.04\home\floofy\AdvProg\Assignment_2\github\AdvProg_A2_GreenDino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aki/Documents/Uni/SEM1/APT/Assignment/A2/AdvProg_A2_GreenDino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A58635-E914-4BFC-90CF-4B5915C3CF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44985BE0-BCE6-B94B-B513-9F44C4FAA53D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0A4B5FC3-0136-B14A-9B40-3E7830ECEC8E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" xr2:uid="{0A4B5FC3-0136-B14A-9B40-3E7830ECEC8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
   <si>
     <t>Week 7</t>
   </si>
@@ -213,6 +211,18 @@
   </si>
   <si>
     <t>Completed initial design of ADTs, linkedlist implementation, contributed to saved-game format</t>
+  </si>
+  <si>
+    <t>ADT implementation for storing information is still in progress.</t>
+  </si>
+  <si>
+    <t>Implementation of linked lists, arrays and vectors where suitable. Test cases were used where necessary to test whether certain methods were working or not.</t>
+  </si>
+  <si>
+    <t>Implementation of arrays and vectors where suitable. Test cases were used where necessary to test whether certain methods were working or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADT implementation for storing information is still in progress. </t>
   </si>
 </sst>
 </file>
@@ -451,7 +461,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1016,11 +1082,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEB16DE-CA26-1841-81B8-0823EC851E9B}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -1031,17 +1097,17 @@
     <col min="7" max="9" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1066,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1196,7 @@
         <v>Amy Nguyen</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="26" t="s">
         <v>27</v>
@@ -1149,7 +1215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="26" t="s">
         <v>28</v>
@@ -1168,7 +1234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="27" t="s">
         <v>55</v>
@@ -1187,7 +1253,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="27" t="s">
         <v>46</v>
@@ -1198,7 +1264,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="26"/>
       <c r="E17" s="12"/>
@@ -1207,7 +1273,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1286,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1312,7 @@
         <v>Amy Nguyen</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="26" t="s">
         <v>30</v>
@@ -1265,7 +1331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="26" t="s">
         <v>31</v>
@@ -1284,7 +1350,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="27" t="s">
         <v>32</v>
@@ -1303,7 +1369,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="27" t="s">
         <v>39</v>
@@ -1314,7 +1380,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="27" t="s">
         <v>33</v>
@@ -1325,7 +1391,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="26"/>
       <c r="E27" s="3"/>
@@ -1334,7 +1400,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1413,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1360,17 +1426,20 @@
       <c r="F31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="G31" s="4" t="str">
+        <f>$B$6</f>
+        <v>Sean Tan</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f>$B$7</f>
+        <v>Aaron Soa</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f>$B$8</f>
+        <v>Amy Nguyen</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="68" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="26" t="s">
         <v>35</v>
@@ -1379,11 +1448,17 @@
       <c r="F32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="G32" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="D33" s="26" t="s">
         <v>38</v>
@@ -1392,11 +1467,17 @@
       <c r="F33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="3:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="G33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
       <c r="D34" s="26" t="s">
         <v>37</v>
@@ -1405,11 +1486,17 @@
       <c r="F34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" spans="3:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="G34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
       <c r="D35" s="26" t="s">
         <v>36</v>
@@ -1420,7 +1507,7 @@
       <c r="H35" s="20"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
       <c r="D36" s="27" t="s">
         <v>34</v>
@@ -1431,7 +1518,7 @@
       <c r="H36" s="20"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="D37" s="26"/>
       <c r="E37" s="3"/>
@@ -1440,7 +1527,7 @@
       <c r="H37" s="20"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" s="4" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1540,7 @@
       <c r="H38" s="23"/>
       <c r="I38" s="24"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" s="4" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +1563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="26" t="s">
         <v>44</v>
@@ -1489,7 +1576,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="3:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="D43" s="26" t="s">
         <v>40</v>
@@ -1502,7 +1589,7 @@
       <c r="H43" s="20"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="26" t="s">
         <v>43</v>
@@ -1515,7 +1602,7 @@
       <c r="H44" s="20"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
       <c r="D45" s="26" t="s">
         <v>48</v>
@@ -1526,7 +1613,7 @@
       <c r="H45" s="20"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
       <c r="D46" s="26" t="s">
         <v>47</v>
@@ -1537,7 +1624,7 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
       <c r="D47" s="26"/>
       <c r="E47" s="3"/>
@@ -1546,7 +1633,7 @@
       <c r="H47" s="20"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
         <v>1</v>
       </c>
@@ -1559,7 +1646,7 @@
       <c r="H48" s="23"/>
       <c r="I48" s="24"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" s="4" t="s">
         <v>16</v>
       </c>
@@ -1582,7 +1669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="2" t="s">
         <v>41</v>
@@ -1595,7 +1682,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" t="s">
         <v>42</v>
@@ -1608,7 +1695,7 @@
       <c r="H53" s="20"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
         <v>45</v>
@@ -1621,7 +1708,7 @@
       <c r="H54" s="20"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
       <c r="D55" s="2" t="s">
         <v>25</v>
@@ -1632,7 +1719,7 @@
       <c r="H55" s="20"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="25" t="s">
         <v>26</v>
@@ -1643,7 +1730,7 @@
       <c r="H56" s="20"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
@@ -1652,7 +1739,7 @@
       <c r="H57" s="20"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" s="4" t="s">
         <v>1</v>
       </c>
@@ -1674,104 +1761,146 @@
     <mergeCell ref="D58:E58"/>
   </mergeCells>
   <conditionalFormatting sqref="A19:XFD20 A18:D18 A29:XFD30 A28:D28 A39:XFD40 A38:D38 A49:XFD50 A48:D48 A59:XFD1048576 A58:D58 F18:XFD18 A21:E27 J21:XFD28 J31:XFD38 A41:E47 J41:XFD48 J51:XFD58 A31:E37 A51:E52 A57:E57 A53:C56 E53:E56 D54:D56 A1:XFD17">
-    <cfRule type="cellIs" dxfId="7" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:I22 F25:I28 F23:F24">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>

--- a/Weekly Group Update Sheet.xlsx
+++ b/Weekly Group Update Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aki/Documents/Uni/SEM1/APT/Assignment/A2/AdvProg_A2_GreenDino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44985BE0-BCE6-B94B-B513-9F44C4FAA53D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9CDA1-572A-BF4E-8286-74F961F8927E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" xr2:uid="{0A4B5FC3-0136-B14A-9B40-3E7830ECEC8E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{0A4B5FC3-0136-B14A-9B40-3E7830ECEC8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>Week 7</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Implementation(s) or suitable ADTs wrapper for the use of linked-list, vector and arrays, game logic not required</t>
   </si>
   <si>
-    <t>Initialisation of data strctures for new game</t>
-  </si>
-  <si>
     <t>Simple user prompt for main menu</t>
   </si>
   <si>
@@ -213,16 +210,16 @@
     <t>Completed initial design of ADTs, linkedlist implementation, contributed to saved-game format</t>
   </si>
   <si>
-    <t>ADT implementation for storing information is still in progress.</t>
-  </si>
-  <si>
-    <t>Implementation of linked lists, arrays and vectors where suitable. Test cases were used where necessary to test whether certain methods were working or not.</t>
-  </si>
-  <si>
-    <t>Implementation of arrays and vectors where suitable. Test cases were used where necessary to test whether certain methods were working or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADT implementation for storing information is still in progress. </t>
+    <t>Implementation of arrays and vectors where suitable. Test cases were used where necessary to test whether certain methods were working or not. Save File Format implementation.</t>
+  </si>
+  <si>
+    <t>Implementation of arrays and vectors where suitable. Test cases were used where necessary to test whether certain methods were working or not. Error checking and testing for ADT implementation. Exception handling for testing.</t>
+  </si>
+  <si>
+    <t>Initialisation of data structures for new game</t>
+  </si>
+  <si>
+    <t>Implementation of linked lists, arrays and vectors where suitable. Test cases were used where necessary to test whether certain methods were working or not. Error checking and testing for ADT implementation.</t>
   </si>
 </sst>
 </file>
@@ -461,7 +458,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1082,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEB16DE-CA26-1841-81B8-0823EC851E9B}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>29</v>
@@ -1126,7 +1263,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1137,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1148,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1159,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1167,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1206,13 +1343,13 @@
         <v>18</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1225,38 +1362,38 @@
         <v>19</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="10"/>
@@ -1322,13 +1459,13 @@
         <v>18</v>
       </c>
       <c r="G22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="I22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="17" x14ac:dyDescent="0.2">
@@ -1341,13 +1478,13 @@
         <v>19</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="17" x14ac:dyDescent="0.2">
@@ -1360,19 +1497,19 @@
         <v>20</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="10"/>
@@ -1439,7 +1576,7 @@
         <v>Amy Nguyen</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="26" t="s">
         <v>35</v>
@@ -1449,32 +1586,32 @@
         <v>18</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="D33" s="26" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="19" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="34" x14ac:dyDescent="0.2">
@@ -1486,15 +1623,9 @@
       <c r="F34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
@@ -1532,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="22"/>
@@ -1553,20 +1684,23 @@
       <c r="F41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>24</v>
+      <c r="G41" s="4" t="str">
+        <f>$B$6</f>
+        <v>Sean Tan</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>$B$7</f>
+        <v>Aaron Soa</v>
+      </c>
+      <c r="I41" s="6" t="str">
+        <f>$B$8</f>
+        <v>Amy Nguyen</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="19" t="s">
@@ -1579,20 +1713,22 @@
     <row r="43" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="D43" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="20"/>
+      <c r="G43" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="H43" s="20"/>
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="19" t="s">
@@ -1605,7 +1741,7 @@
     <row r="45" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
       <c r="D45" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="19"/>
@@ -1616,7 +1752,7 @@
     <row r="46" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
       <c r="D46" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="19"/>
@@ -1638,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="22"/>
@@ -1672,7 +1808,7 @@
     <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="19" t="s">
@@ -1685,7 +1821,7 @@
     <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="19" t="s">
@@ -1698,7 +1834,7 @@
     <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="19" t="s">
@@ -1760,7 +1896,77 @@
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D58:E58"/>
   </mergeCells>
-  <conditionalFormatting sqref="A19:XFD20 A18:D18 A29:XFD30 A28:D28 A39:XFD40 A38:D38 A49:XFD50 A48:D48 A59:XFD1048576 A58:D58 F18:XFD18 A21:E27 J21:XFD28 J31:XFD38 A41:E47 J41:XFD48 J51:XFD58 A31:E37 A51:E52 A57:E57 A53:C56 E53:E56 D54:D56 A1:XFD17">
+  <conditionalFormatting sqref="A19:XFD20 A18:D18 A29:XFD30 A28:D28 A39:XFD40 A38:C38 A49:XFD50 A48:C48 A59:XFD1048576 A58:D58 F18:XFD18 A21:E27 J21:XFD28 J31:XFD38 A41:E47 J41:XFD48 J51:XFD58 A31:E37 A51:E52 A57:E57 A53:C56 E53:E56 D54:D56 A1:XFD17">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:I22 F25:I28 F23:F24">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1774,7 +1980,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:I22 F25:I28 F23:F24">
+  <conditionalFormatting sqref="I23">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1788,7 +1994,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="I24">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1802,7 +2008,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1816,7 +2022,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1830,7 +2036,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1844,7 +2050,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I41">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1858,7 +2064,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="H41">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1872,7 +2078,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G41">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1886,7 +2092,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1900,7 +2106,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="D38">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1915,7 +2121,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 D28 D38 D48 D58" xr:uid="{B7D4F295-AB5B-4844-AEA2-2125B1A60B55}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 D28 D48 D58 D38" xr:uid="{B7D4F295-AB5B-4844-AEA2-2125B1A60B55}">
       <formula1>$E$5:$E$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Weekly Group Update Sheet.xlsx
+++ b/Weekly Group Update Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aki/Documents/Uni/SEM1/APT/Assignment/A2/AdvProg_A2_GreenDino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9CDA1-572A-BF4E-8286-74F961F8927E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585232E9-7D46-F24A-9B2E-32A5C3D2781A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{0A4B5FC3-0136-B14A-9B40-3E7830ECEC8E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
   <si>
     <t>Week 7</t>
   </si>
@@ -99,15 +99,6 @@
     <t>Group Member:</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Group Report Written</t>
   </si>
   <si>
@@ -220,6 +211,24 @@
   </si>
   <si>
     <t>Implementation of linked lists, arrays and vectors where suitable. Test cases were used where necessary to test whether certain methods were working or not. Error checking and testing for ADT implementation.</t>
+  </si>
+  <si>
+    <t>User Prompt for gameplay. Moving tiles from Factory to Players Mosaic. Error Testing and fixing errors.</t>
+  </si>
+  <si>
+    <t>Group Written Report. Implementationg of Save Function continued and updated. Error Testing and fixing errors. Fixed Wall Tiling (moving tiles to the Wall).</t>
+  </si>
+  <si>
+    <t>Implementationg of Load Function continued and updated. Error Testing and fixing errors. Testing and fixing errors with Load Function.</t>
+  </si>
+  <si>
+    <t>Implementationg of Load Function continued and updated. Error Testing.</t>
+  </si>
+  <si>
+    <t>Group Written Report. Implementationg of Save Function continued and updated. Error Testing.</t>
+  </si>
+  <si>
+    <t>Implementation of Game Scoring and User Prompt. Implementation of Player Mosaic continued and updated. Error Testing and fixing errors. Fixed player and game scoring.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -426,8 +435,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -458,7 +465,119 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1219,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEB16DE-CA26-1841-81B8-0823EC851E9B}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,10 +1368,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1263,7 +1382,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1274,7 +1393,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1285,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1296,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1304,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1335,65 +1454,65 @@
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="D13" s="26" t="s">
-        <v>27</v>
+      <c r="D13" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>56</v>
+      <c r="G13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
-      <c r="D14" s="26" t="s">
-        <v>28</v>
+      <c r="D14" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="D15" s="27" t="s">
-        <v>54</v>
+      <c r="D15" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="D16" s="27" t="s">
-        <v>45</v>
+      <c r="D16" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="10"/>
@@ -1403,7 +1522,7 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="12"/>
       <c r="F17" s="10"/>
       <c r="G17" s="13"/>
@@ -1414,10 +1533,10 @@
       <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="11"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -1451,65 +1570,65 @@
     </row>
     <row r="22" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
-      <c r="D22" s="26" t="s">
-        <v>30</v>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
-      <c r="D23" s="26" t="s">
-        <v>31</v>
+      <c r="D23" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
-      <c r="D24" s="27" t="s">
-        <v>32</v>
+      <c r="D24" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
-      <c r="D25" s="27" t="s">
-        <v>38</v>
+      <c r="D25" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="10"/>
@@ -1519,8 +1638,8 @@
     </row>
     <row r="26" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
-      <c r="D26" s="27" t="s">
-        <v>33</v>
+      <c r="D26" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="10"/>
@@ -1530,7 +1649,7 @@
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
-      <c r="D27" s="26"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="3"/>
       <c r="F27" s="10"/>
       <c r="G27" s="13"/>
@@ -1541,10 +1660,10 @@
       <c r="C28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="11"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -1578,98 +1697,98 @@
     </row>
     <row r="32" spans="3:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
-      <c r="D32" s="26" t="s">
-        <v>35</v>
+      <c r="D32" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="21" t="s">
+      <c r="G32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>60</v>
+      <c r="H32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
-      <c r="D33" s="26" t="s">
-        <v>61</v>
+      <c r="D33" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>55</v>
+      <c r="G33" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
-      <c r="D34" s="26" t="s">
-        <v>37</v>
+      <c r="D34" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
-      <c r="D35" s="26" t="s">
-        <v>36</v>
+      <c r="D35" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
-      <c r="D36" s="27" t="s">
-        <v>34</v>
+      <c r="D36" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
-      <c r="D37" s="26"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" s="4" t="s">
@@ -1697,90 +1816,100 @@
         <v>Amy Nguyen</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
-      <c r="D42" s="26" t="s">
-        <v>43</v>
+      <c r="D42" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
+      <c r="G42" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="43" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
-      <c r="D43" s="26" t="s">
-        <v>39</v>
+      <c r="D43" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="21"/>
+      <c r="G43" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="44" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
-      <c r="D44" s="26" t="s">
-        <v>42</v>
+      <c r="D44" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="21"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
-      <c r="D45" s="26" t="s">
-        <v>47</v>
+      <c r="D45" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
-      <c r="D46" s="26" t="s">
-        <v>46</v>
+      <c r="D46" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="21"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
-      <c r="D47" s="26"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
+      <c r="D48" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" s="4" t="s">
@@ -1795,98 +1924,113 @@
       <c r="F51" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G51" s="4" t="str">
+        <f>$B$6</f>
+        <v>Sean Tan</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>$B$7</f>
+        <v>Aaron Soa</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f>$B$8</f>
+        <v>Amy Nguyen</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="68" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G52" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
+      <c r="G53" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
       <c r="D55" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
-      <c r="D56" s="25" t="s">
-        <v>26</v>
+      <c r="D56" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="21"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="19"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="24"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1897,6 +2041,62 @@
     <mergeCell ref="D58:E58"/>
   </mergeCells>
   <conditionalFormatting sqref="A19:XFD20 A18:D18 A29:XFD30 A28:D28 A39:XFD40 A38:C38 A49:XFD50 A48:C48 A59:XFD1048576 A58:D58 F18:XFD18 A21:E27 J21:XFD28 J31:XFD38 A41:E47 J41:XFD48 J51:XFD58 A31:E37 A51:E52 A57:E57 A53:C56 E53:E56 D54:D56 A1:XFD17">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:I22 F25:I28 F23:F24">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>$E$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>$E$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>$E$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>$E$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1910,7 +2110,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:I22 F25:I28 F23:F24">
+  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1924,7 +2124,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="I23">
     <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1938,7 +2138,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1952,7 +2152,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1966,7 +2166,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1980,7 +2180,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -1994,7 +2194,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="I41">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -2008,7 +2208,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="H41">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -2022,7 +2222,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="G41">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -2036,21 +2236,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
-      <formula>$E$5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>$E$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>$E$7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
-      <formula>$E$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
+  <conditionalFormatting sqref="D38">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -2064,7 +2250,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -2078,7 +2264,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G51">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -2092,7 +2278,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -2106,7 +2292,7 @@
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="I51">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
@@ -2121,7 +2307,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 D28 D48 D58 D38" xr:uid="{B7D4F295-AB5B-4844-AEA2-2125B1A60B55}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 D28 D38 D58 D48" xr:uid="{B7D4F295-AB5B-4844-AEA2-2125B1A60B55}">
       <formula1>$E$5:$E$8</formula1>
     </dataValidation>
   </dataValidations>
